--- a/elsteiner/scripts.xlsx
+++ b/elsteiner/scripts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Vocation</t>
   </si>
@@ -58,6 +58,57 @@
   </si>
   <si>
     <t>Yalahar_CemeteryQuarterRight/setup.json</t>
+  </si>
+  <si>
+    <t>30+</t>
+  </si>
+  <si>
+    <t>Ankrahmun Terramites</t>
+  </si>
+  <si>
+    <t>Ankrahmun_Terramites/setup_ek.json</t>
+  </si>
+  <si>
+    <t>100+</t>
+  </si>
+  <si>
+    <t>Hrodmir Crystal Cave</t>
+  </si>
+  <si>
+    <t>Svargrond_HrodmirCrystalCave/setup.json</t>
+  </si>
+  <si>
+    <t>35+</t>
+  </si>
+  <si>
+    <t>Mammoth Sharing Factory</t>
+  </si>
+  <si>
+    <t>Svargrond_MammothSharingFactory/setup_ek.json</t>
+  </si>
+  <si>
+    <t>50+</t>
+  </si>
+  <si>
+    <t>Nibelor Ice Golems + Crystal Spiders</t>
+  </si>
+  <si>
+    <t>Svargrond_Nibeolor_IceGolems_CrystalSpiders/setup_rp.json</t>
+  </si>
+  <si>
+    <t>80+</t>
+  </si>
+  <si>
+    <t>Venore Coryms East</t>
+  </si>
+  <si>
+    <t>Venore_CorymsEast/setup_ek.json</t>
+  </si>
+  <si>
+    <t>Yalahar Cemetery -1</t>
+  </si>
+  <si>
+    <t>Yalahar_Cemetery-1/setup_rp.json</t>
   </si>
 </sst>
 </file>
@@ -116,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -128,8 +179,14 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -415,68 +472,140 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="5"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="5"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2"/>
@@ -511,28 +640,28 @@
       <c r="F15" s="2"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="5"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="5"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="5"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="5"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
